--- a/karakalpak_indeks_2022_07.xlsx
+++ b/karakalpak_indeks_2022_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.ortiqov\Desktop\Cerr\Regular\Consumer confidence index\01_Survey_call_center\2022\02\consumer_sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500B19B-46C0-40A7-97FA-C4ABB3D91C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F6855-7C11-4D7C-B4F4-D672B6902E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">problems_district!$A$1:$AH$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -255,10 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2092,7 +2096,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,149 +2847,151 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>26</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2994,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -3027,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3059,91 +3065,91 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>20</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -3163,49 +3169,49 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>12</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>31</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3220,19 +3226,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -3247,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -3371,46 +3377,46 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3434,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -3449,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -3475,46 +3481,46 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>72</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3532,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -3550,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -3579,28 +3585,28 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
       <c r="E8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3609,19 +3615,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3642,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -3683,10 +3689,10 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3695,16 +3701,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3713,52 +3719,52 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>1</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
       </c>
       <c r="AA9">
         <v>1</v>
@@ -3782,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -3891,52 +3897,52 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -3954,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -3969,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -3990,51 +3996,51 @@
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -4058,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -4073,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -4099,47 +4105,47 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G13">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
         <v>3</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -4162,16 +4168,16 @@
         <v>0</v>
       </c>
       <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>3</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -4203,25 +4209,25 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
         <v>25</v>
       </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
       <c r="G14">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -4233,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -4251,25 +4257,25 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -4281,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -4299,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -4307,25 +4313,25 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -4337,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -4355,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -4364,16 +4370,16 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -4385,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -4403,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -4411,28 +4417,28 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4441,22 +4447,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4468,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -4515,28 +4521,28 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4545,25 +4551,25 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
         <v>2</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -4619,213 +4625,218 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>31</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>23</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>8</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19">
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>17</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>16</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>6</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>1</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>1</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH1" xr:uid="{522058A3-9C4D-4265-A8D9-0F3D9CAA082F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH18">
+      <sortCondition descending="1" ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/karakalpak_indeks_2022_07.xlsx
+++ b/karakalpak_indeks_2022_07.xlsx
@@ -5,21 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.ortiqov\Desktop\Cerr\Regular\Consumer confidence index\01_Survey_call_center\2022\02\consumer_sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.usmonov\Desktop\consumer_sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500B19B-46C0-40A7-97FA-C4ABB3D91C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98886BF-F912-47F0-A7BD-CA7D63F4E071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="1200" windowWidth="13800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="karakalpak_graph" sheetId="3" r:id="rId2"/>
     <sheet name="problems_district" sheetId="2" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$J$1</definedName>
   </definedNames>
@@ -235,12 +232,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,10 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1703,113 +1707,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="index"/>
-      <sheetName val="karakalpak_graph"/>
-      <sheetName val="problems_district"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1">
-            <v>44197</v>
-          </cell>
-          <cell r="C1">
-            <v>44287</v>
-          </cell>
-          <cell r="D1">
-            <v>44378</v>
-          </cell>
-          <cell r="E1">
-            <v>44470</v>
-          </cell>
-          <cell r="F1">
-            <v>44562</v>
-          </cell>
-          <cell r="G1">
-            <v>44652</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Кутилмалар индекси</v>
-          </cell>
-          <cell r="B2">
-            <v>153</v>
-          </cell>
-          <cell r="C2">
-            <v>150</v>
-          </cell>
-          <cell r="D2">
-            <v>149</v>
-          </cell>
-          <cell r="E2">
-            <v>141</v>
-          </cell>
-          <cell r="F2">
-            <v>159</v>
-          </cell>
-          <cell r="G2">
-            <v>155</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Умумий индекс</v>
-          </cell>
-          <cell r="B3">
-            <v>131</v>
-          </cell>
-          <cell r="C3">
-            <v>131</v>
-          </cell>
-          <cell r="D3">
-            <v>130</v>
-          </cell>
-          <cell r="E3">
-            <v>130</v>
-          </cell>
-          <cell r="F3">
-            <v>136</v>
-          </cell>
-          <cell r="G3">
-            <v>132</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Жорий ҳолат индекси</v>
-          </cell>
-          <cell r="B4">
-            <v>110</v>
-          </cell>
-          <cell r="C4">
-            <v>113</v>
-          </cell>
-          <cell r="D4">
-            <v>111</v>
-          </cell>
-          <cell r="E4">
-            <v>119</v>
-          </cell>
-          <cell r="F4">
-            <v>112</v>
-          </cell>
-          <cell r="G4">
-            <v>109</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2843,11 +2740,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AH20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="128.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="35" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2969,7 +2877,7 @@
       <c r="E2">
         <v>14</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>26</v>
       </c>
       <c r="G2">
@@ -3073,7 +2981,7 @@
       <c r="E3">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>23</v>
       </c>
       <c r="G3">
@@ -3177,7 +3085,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>6</v>
       </c>
       <c r="G4">
@@ -3281,7 +3189,7 @@
       <c r="E5">
         <v>24</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>24</v>
       </c>
       <c r="G5">
@@ -3385,7 +3293,7 @@
       <c r="E6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>17</v>
       </c>
       <c r="G6">
@@ -3489,7 +3397,7 @@
       <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>9</v>
       </c>
       <c r="G7">
@@ -3593,7 +3501,7 @@
       <c r="E8">
         <v>27</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>15</v>
       </c>
       <c r="G8">
@@ -3697,7 +3605,7 @@
       <c r="E9">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>32</v>
       </c>
       <c r="G9">
@@ -3801,7 +3709,7 @@
       <c r="E10">
         <v>23</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>16</v>
       </c>
       <c r="G10">
@@ -3905,7 +3813,7 @@
       <c r="E11">
         <v>29</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>21</v>
       </c>
       <c r="G11">
@@ -4009,7 +3917,7 @@
       <c r="E12">
         <v>31</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>12</v>
       </c>
       <c r="G12">
@@ -4113,7 +4021,7 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13">
@@ -4217,7 +4125,7 @@
       <c r="E14">
         <v>25</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>13</v>
       </c>
       <c r="G14">
@@ -4321,7 +4229,7 @@
       <c r="E15">
         <v>22</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>25</v>
       </c>
       <c r="G15">
@@ -4425,7 +4333,7 @@
       <c r="E16">
         <v>13</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>11</v>
       </c>
       <c r="G16">
@@ -4529,7 +4437,7 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>26</v>
       </c>
       <c r="G17">
@@ -4633,7 +4541,7 @@
       <c r="E18">
         <v>15</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>8</v>
       </c>
       <c r="G18">
@@ -4737,7 +4645,7 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>17</v>
       </c>
       <c r="G19">
@@ -4824,6 +4732,9 @@
       <c r="AH19">
         <v>0</v>
       </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/karakalpak_indeks_2022_07.xlsx
+++ b/karakalpak_indeks_2022_07.xlsx
@@ -5,27 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.usmonov\Desktop\consumer_sentiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.ortiqov\Desktop\Cerr\Regular\Consumer confidence index\01_Survey_call_center\2022\02\consumer_sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98886BF-F912-47F0-A7BD-CA7D63F4E071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC390AE-E42E-4481-B9A2-55CEF97DE799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1200" windowWidth="13800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="karakalpak_graph" sheetId="3" r:id="rId2"/>
     <sheet name="problems_district" sheetId="2" r:id="rId3"/>
+    <sheet name="problems_district_table" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">index!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">problems_district!$A$1:$AI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">problems_district_table!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>district</t>
   </si>
@@ -258,11 +261,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1988,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -2743,12 +2747,15 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="34.28515625" hidden="1" customWidth="1"/>
@@ -4629,114 +4636,572 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>20</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>17</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>16</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>9</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>6</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <v>1</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
         <v>1</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <v>1</v>
       </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI1" xr:uid="{C7B87704-5AF1-41E6-A7D1-B3A7337D4B9A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632AFF30-33B0-42A4-AC79-A01632D701B0}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18">
+        <v>31</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{C7B87704-5AF1-41E6-A7D1-B3A7337D4B9A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
